--- a/老黄牛小工具/Excel插件/主文件.xlsx
+++ b/老黄牛小工具/Excel插件/主文件.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22860" windowHeight="10365"/>
+    <workbookView windowWidth="27480" windowHeight="13665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
   <si>
     <t>日期</t>
   </si>
@@ -665,9 +665,6 @@
   </si>
   <si>
     <t>服务器网址</t>
-  </si>
-  <si>
-    <t>http://hk.r34.cc</t>
   </si>
   <si>
     <t>读权限字段</t>
@@ -804,12 +801,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,6 +886,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -902,8 +907,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -917,22 +939,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -946,47 +953,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1002,10 +970,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1016,15 +984,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="36">
@@ -1054,187 +1040,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1328,26 +1314,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1384,24 +1370,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1411,17 +1379,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1433,10 +1419,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1448,13 +1434,13 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1463,115 +1449,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2026,12 +2012,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -2080,7 +2066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:11">
+    <row r="2" spans="1:11">
       <c r="A2" s="32">
         <v>20200905</v>
       </c>
@@ -2113,7 +2099,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:11">
+    <row r="3" spans="1:11">
       <c r="A3" s="32">
         <v>20200905</v>
       </c>
@@ -2142,7 +2128,7 @@
       </c>
       <c r="K3" s="33"/>
     </row>
-    <row r="4" ht="15.75" spans="1:11">
+    <row r="4" spans="1:11">
       <c r="A4" s="32">
         <v>20200906</v>
       </c>
@@ -2173,7 +2159,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:11">
+    <row r="5" spans="1:11">
       <c r="A5" s="32">
         <v>20200909</v>
       </c>
@@ -2202,7 +2188,7 @@
       </c>
       <c r="K5" s="33"/>
     </row>
-    <row r="6" ht="15.75" spans="1:11">
+    <row r="6" spans="1:11">
       <c r="A6" s="32">
         <v>20200909</v>
       </c>
@@ -2227,7 +2213,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="1:11">
+    <row r="7" spans="1:11">
       <c r="A7" s="32">
         <v>20200911</v>
       </c>
@@ -2258,7 +2244,7 @@
       </c>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" ht="15.75" spans="1:11">
+    <row r="8" spans="1:11">
       <c r="A8" s="32">
         <v>20200911</v>
       </c>
@@ -2297,12 +2283,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:AW58"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2451,21 +2437,19 @@
       <c r="E5" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>62</v>
-      </c>
+      <c r="F5" s="17"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="4"/>
       <c r="L5" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -2482,15 +2466,15 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J6" s="15"/>
       <c r="K6" s="4"/>
       <c r="L6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="13" t="s">
         <v>67</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>68</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -2510,7 +2494,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="4"/>
       <c r="L7" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M7" s="13"/>
       <c r="N7" s="4"/>
@@ -2529,7 +2513,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="4"/>
       <c r="L8" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M8" s="13"/>
       <c r="N8" s="4"/>
@@ -2548,10 +2532,10 @@
       <c r="J9" s="13"/>
       <c r="K9" s="4"/>
       <c r="L9" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>72</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -2694,108 +2678,108 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="14.45" customHeight="1" spans="1:15">
       <c r="A18" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="21" t="s">
         <v>74</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>75</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
     </row>
     <row r="19" ht="14.45" customHeight="1" spans="1:49">
       <c r="A19" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="C19" s="23" t="s">
         <v>79</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>80</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>47</v>
       </c>
       <c r="E19" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="G19" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="H19" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="I19" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="I19" s="23" t="s">
+      <c r="J19" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="J19" s="23" t="s">
+      <c r="K19" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="K19" s="23" t="s">
+      <c r="L19" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="L19" s="23" t="s">
+      <c r="M19" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="M19" s="23" t="s">
+      <c r="N19" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="N19" s="23" t="s">
+      <c r="O19" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="O19" s="23" t="s">
+      <c r="P19" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="P19" s="23" t="s">
+      <c r="Q19" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="Q19" s="23" t="s">
+      <c r="R19" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="R19" s="23" t="s">
+      <c r="S19" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="S19" s="23" t="s">
+      <c r="T19" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="T19" s="23" t="s">
+      <c r="U19" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="U19" s="23" t="s">
+      <c r="V19" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="V19" s="23" t="s">
+      <c r="W19" s="23" t="s">
         <v>98</v>
-      </c>
-      <c r="W19" s="23" t="s">
-        <v>99</v>
       </c>
       <c r="X19" s="23"/>
       <c r="Y19" s="23"/>
@@ -2826,31 +2810,31 @@
     </row>
     <row r="20" s="3" customFormat="1" ht="14.45" customHeight="1" spans="1:13">
       <c r="A20" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
       <c r="E20" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F20" s="24"/>
       <c r="I20" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J20" s="24"/>
       <c r="L20" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M20" s="24"/>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -3038,26 +3022,26 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I2">
-      <formula1>"姓名字段,提示字段,ID字段,匿名填表,缩略显示,分类字段,覆盖上传"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A17">
-      <formula1>"数据表名,学号/工号,姓名,显示字段,不显字段,排序字段,是否升序,   d1,d2,d3,d4,d5,d6,d7,d8,d9,d10,d11,d12,d13,d14,d15,d16,d17,d18,d19,d20,d21,d22,d23,d24,d25,d26,d27,d28,d29,d30,d31,d32,d33,d34,d35,d36,d37,d38,d  39,d40,d41,d42,d43,d44,d45,d46,d47,d48,d49,d50"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 O1:O6">
       <formula1>"数据表名,学号/工号,姓名,显示字段,不显字段,上传字段,d1,d2,d3,d4,d5,d6,d7,d8,d9,d10,d11,d12,d13,d14,d15,d16,d17,d18,d19,d20,d21,d22,d23,d24,d25,d26,d27,d28,d29,d30,d31,d32,d33,d34,d35,d36,d37,d38,d39,d40,d41,d42,d43,d44,d45,d46,d47,d48,d49,d50"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>"等于,包含,IN,大于等,小于等"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 M8">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5">
       <formula1>"否,是,是，网站结构下载"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 M8">
-      <formula1>"是,否"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A17">
+      <formula1>"数据表名,学号/工号,姓名,显示字段,不显字段,排序字段,是否升序,   d1,d2,d3,d4,d5,d6,d7,d8,d9,d10,d11,d12,d13,d14,d15,d16,d17,d18,d19,d20,d21,d22,d23,d24,d25,d26,d27,d28,d29,d30,d31,d32,d33,d34,d35,d36,d37,d38,d  39,d40,d41,d42,d43,d44,d45,d46,d47,d48,d49,d50"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B17">
       <formula1>"等于,包含,IN,大于等,小于等,非空,是空,日期"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I2">
+      <formula1>"姓名字段,提示字段,ID字段,匿名填表,缩略显示,分类字段,覆盖上传"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I6">
       <formula1>"姓名字段,提示字段,ID字段,匿名填表,缩略显示,分类字段,覆盖上传,表格说明,初始数据行数"</formula1>
@@ -3066,9 +3050,6 @@
       <formula1>"等于,包含,IN,大于等,小于等,非空,是空"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="F5" r:id="rId3" display="http://hk.r34.cc"/>
-  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
@@ -3076,8 +3057,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
